--- a/assets/Docs/Allignment_Procedure_Realisationdocument.xlsx
+++ b/assets/Docs/Allignment_Procedure_Realisationdocument.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cegekagroup-my.sharepoint.com/personal/jarne_willems_cegeka_com/Documents/Realisationdocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/r0938856_student_thomasmore_be/Documents/CEGEKA_Realisationdocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="949" documentId="13_ncr:1_{2139B280-900B-4951-B5E7-F225E1A1A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316E075E-9FA0-461B-A138-38502B9BDD94}"/>
+  <xr:revisionPtr revIDLastSave="957" documentId="13_ncr:1_{2139B280-900B-4951-B5E7-F225E1A1A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE215A3-531B-4F5E-A20C-183B77E3162C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E3B28ED-62BA-46C1-AF90-1008F7DC1809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E3B28ED-62BA-46C1-AF90-1008F7DC1809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>STEP ONE: Name Change</t>
   </si>
@@ -315,13 +315,16 @@
   </si>
   <si>
     <t>Problems (Look comments)</t>
+  </si>
+  <si>
+    <t>Note: This is a mock-up version of the alignment procedure. The detection rules shown here are fictional and do not reflect actual datasets or environments used during my internship.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +342,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -509,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -562,27 +572,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,45 +641,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,91 +1001,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79061BE9-8992-437D-8806-D7A16D6352F7}">
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="81.109375" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" customWidth="1"/>
-    <col min="10" max="10" width="196.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="172.6640625" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="196.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="172.7109375" customWidth="1"/>
     <col min="12" max="12" width="148" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="231.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.44140625" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="231.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.42578125" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" customWidth="1"/>
-    <col min="26" max="26" width="4.5546875" customWidth="1"/>
-    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.88671875" customWidth="1"/>
-    <col min="29" max="29" width="23.21875" customWidth="1"/>
-    <col min="30" max="30" width="6.44140625" customWidth="1"/>
-    <col min="31" max="31" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="26.33203125" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" customWidth="1"/>
-    <col min="35" max="35" width="24.33203125" customWidth="1"/>
-    <col min="36" max="36" width="20.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.77734375" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" customWidth="1"/>
-    <col min="39" max="39" width="25.6640625" customWidth="1"/>
-    <col min="40" max="40" width="25.77734375" customWidth="1"/>
-    <col min="41" max="41" width="24.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" customWidth="1"/>
+    <col min="30" max="30" width="6.42578125" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="26.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.7109375" customWidth="1"/>
+    <col min="35" max="35" width="24.28515625" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.7109375" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" customWidth="1"/>
+    <col min="39" max="40" width="25.7109375" customWidth="1"/>
+    <col min="41" max="41" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="Z1" s="27"/>
-      <c r="AD1" s="27"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="Z1" s="43"/>
+      <c r="AD1" s="43"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="45" t="s">
+      <c r="AM1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
     </row>
-    <row r="2" spans="2:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1080,38 +1093,38 @@
         <v>2</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="38"/>
+      <c r="O2" s="37"/>
       <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="36" t="s">
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AI2" s="36" t="s">
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AI2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
     </row>
-    <row r="3" spans="2:60" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:60" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1164,7 @@
       <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1195,7 @@
       <c r="Y3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="27"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="22" t="s">
         <v>36</v>
       </c>
@@ -1192,7 +1205,7 @@
       <c r="AC3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="27"/>
+      <c r="AD3" s="43"/>
       <c r="AE3" s="18" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1215,7 @@
       <c r="AG3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="26"/>
+      <c r="AH3" s="33"/>
       <c r="AI3" s="22" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1225,7 @@
       <c r="AK3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AL3" s="47"/>
+      <c r="AL3" s="31"/>
       <c r="AM3" s="24" t="s">
         <v>36</v>
       </c>
@@ -1222,9 +1235,9 @@
       <c r="AO3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="48"/>
+      <c r="AP3" s="32"/>
     </row>
-    <row r="4" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="38"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
         <v>27</v>
@@ -1291,7 +1304,7 @@
       <c r="Y4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="27"/>
+      <c r="Z4" s="43"/>
       <c r="AA4" s="8" t="s">
         <v>40</v>
       </c>
@@ -1301,7 +1314,7 @@
       <c r="AC4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="27"/>
+      <c r="AD4" s="43"/>
       <c r="AE4" s="8" t="s">
         <v>40</v>
       </c>
@@ -1311,7 +1324,7 @@
       <c r="AG4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AH4" s="26"/>
+      <c r="AH4" s="33"/>
       <c r="AI4" s="8" t="s">
         <v>82</v>
       </c>
@@ -1321,7 +1334,7 @@
       <c r="AK4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AL4" s="47"/>
+      <c r="AL4" s="31"/>
       <c r="AM4" s="25" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1344,7 @@
       <c r="AO4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AP4" s="26"/>
+      <c r="AP4" s="33"/>
       <c r="AQ4"/>
       <c r="AR4"/>
       <c r="AS4"/>
@@ -1351,7 +1364,7 @@
       <c r="BG4"/>
       <c r="BH4"/>
     </row>
-    <row r="5" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>70</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
         <v>27</v>
@@ -1418,7 +1431,7 @@
       <c r="Y5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" s="27"/>
+      <c r="Z5" s="43"/>
       <c r="AA5" s="8" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1441,7 @@
       <c r="AC5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AD5" s="27"/>
+      <c r="AD5" s="43"/>
       <c r="AE5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1438,7 +1451,7 @@
       <c r="AG5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AH5" s="26"/>
+      <c r="AH5" s="33"/>
       <c r="AI5" s="8" t="s">
         <v>82</v>
       </c>
@@ -1448,15 +1461,15 @@
       <c r="AK5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AL5" s="47"/>
+      <c r="AL5" s="31"/>
       <c r="AM5" s="25" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AN5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="AO5" s="14"/>
-      <c r="AP5" s="26"/>
+      <c r="AP5" s="33"/>
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
@@ -1476,7 +1489,7 @@
       <c r="BG5"/>
       <c r="BH5"/>
     </row>
-    <row r="6" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1516,7 +1529,7 @@
       <c r="N6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="38"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
         <v>27</v>
@@ -1545,7 +1558,7 @@
       <c r="Y6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Z6" s="27"/>
+      <c r="Z6" s="43"/>
       <c r="AA6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1555,7 +1568,7 @@
       <c r="AC6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AD6" s="27"/>
+      <c r="AD6" s="43"/>
       <c r="AE6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +1578,7 @@
       <c r="AG6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AH6" s="26"/>
+      <c r="AH6" s="33"/>
       <c r="AI6" s="8" t="s">
         <v>74</v>
       </c>
@@ -1575,7 +1588,7 @@
       <c r="AK6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" s="47"/>
+      <c r="AL6" s="31"/>
       <c r="AM6" s="25" t="s">
         <v>89</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>42</v>
       </c>
       <c r="AO6" s="14"/>
-      <c r="AP6" s="26"/>
+      <c r="AP6" s="33"/>
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
@@ -1603,7 +1616,7 @@
       <c r="BG6"/>
       <c r="BH6"/>
     </row>
-    <row r="7" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1617,7 +1630,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="38"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -1628,23 +1641,23 @@
       <c r="W7" s="8"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="27"/>
+      <c r="Z7" s="43"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="27"/>
+      <c r="AD7" s="43"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
-      <c r="AH7" s="26"/>
+      <c r="AH7" s="33"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="23"/>
-      <c r="AL7" s="47"/>
+      <c r="AL7" s="31"/>
       <c r="AM7" s="25"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
-      <c r="AP7" s="26"/>
+      <c r="AP7" s="33"/>
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
@@ -1664,7 +1677,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
     </row>
-    <row r="8" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1678,7 +1691,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="38"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -1689,23 +1702,23 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="27"/>
+      <c r="Z8" s="43"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="27"/>
+      <c r="AD8" s="43"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
-      <c r="AH8" s="26"/>
+      <c r="AH8" s="33"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="47"/>
+      <c r="AL8" s="31"/>
       <c r="AM8" s="25"/>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
-      <c r="AP8" s="26"/>
+      <c r="AP8" s="33"/>
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8"/>
@@ -1725,7 +1738,7 @@
       <c r="BG8"/>
       <c r="BH8"/>
     </row>
-    <row r="9" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1739,7 +1752,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="38"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -1750,23 +1763,23 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="27"/>
+      <c r="Z9" s="43"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="27"/>
+      <c r="AD9" s="43"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="26"/>
+      <c r="AH9" s="33"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="23"/>
-      <c r="AL9" s="47"/>
+      <c r="AL9" s="31"/>
       <c r="AM9" s="25"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="14"/>
-      <c r="AP9" s="26"/>
+      <c r="AP9" s="33"/>
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9"/>
@@ -1786,7 +1799,7 @@
       <c r="BG9"/>
       <c r="BH9"/>
     </row>
-    <row r="10" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1800,7 +1813,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="38"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -1811,23 +1824,23 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="27"/>
+      <c r="Z10" s="43"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="27"/>
+      <c r="AD10" s="43"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
-      <c r="AH10" s="26"/>
+      <c r="AH10" s="33"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="23"/>
-      <c r="AL10" s="47"/>
+      <c r="AL10" s="31"/>
       <c r="AM10" s="25"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
-      <c r="AP10" s="26"/>
+      <c r="AP10" s="33"/>
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10"/>
@@ -1847,7 +1860,7 @@
       <c r="BG10"/>
       <c r="BH10"/>
     </row>
-    <row r="11" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1861,7 +1874,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="38"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -1872,23 +1885,23 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="27"/>
+      <c r="Z11" s="43"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="27"/>
+      <c r="AD11" s="43"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
-      <c r="AH11" s="26"/>
+      <c r="AH11" s="33"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="23"/>
-      <c r="AL11" s="47"/>
+      <c r="AL11" s="31"/>
       <c r="AM11" s="25"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14"/>
-      <c r="AP11" s="26"/>
+      <c r="AP11" s="33"/>
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11"/>
@@ -1908,7 +1921,7 @@
       <c r="BG11"/>
       <c r="BH11"/>
     </row>
-    <row r="12" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1922,7 +1935,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="38"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -1933,23 +1946,23 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="27"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="27"/>
+      <c r="AD12" s="43"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="20"/>
-      <c r="AH12" s="26"/>
+      <c r="AH12" s="33"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="23"/>
-      <c r="AL12" s="47"/>
+      <c r="AL12" s="31"/>
       <c r="AM12" s="25"/>
       <c r="AN12" s="14"/>
       <c r="AO12" s="14"/>
-      <c r="AP12" s="26"/>
+      <c r="AP12" s="33"/>
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
@@ -1969,48 +1982,48 @@
       <c r="BG12"/>
       <c r="BH12"/>
     </row>
-    <row r="13" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="27"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="43"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="23"/>
-      <c r="AL13" s="47"/>
+      <c r="AL13" s="31"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="14"/>
       <c r="AO13" s="14"/>
-      <c r="AP13" s="26"/>
+      <c r="AP13" s="33"/>
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
@@ -2030,48 +2043,48 @@
       <c r="BG13"/>
       <c r="BH13"/>
     </row>
-    <row r="14" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="27"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="43"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="23"/>
-      <c r="AL14" s="47"/>
+      <c r="AL14" s="31"/>
       <c r="AM14" s="25"/>
       <c r="AN14" s="14"/>
       <c r="AO14" s="14"/>
-      <c r="AP14" s="26"/>
+      <c r="AP14" s="33"/>
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
@@ -2091,7 +2104,7 @@
       <c r="BG14"/>
       <c r="BH14"/>
     </row>
-    <row r="15" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2105,7 +2118,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="38"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -2116,23 +2129,23 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="27"/>
+      <c r="Z15" s="43"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="27"/>
+      <c r="AD15" s="43"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="26"/>
+      <c r="AH15" s="33"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="23"/>
-      <c r="AL15" s="47"/>
+      <c r="AL15" s="31"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="14"/>
       <c r="AO15" s="14"/>
-      <c r="AP15" s="26"/>
+      <c r="AP15" s="33"/>
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
@@ -2152,7 +2165,7 @@
       <c r="BG15"/>
       <c r="BH15"/>
     </row>
-    <row r="16" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2166,7 +2179,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="38"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -2177,23 +2190,23 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="27"/>
+      <c r="Z16" s="43"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="27"/>
+      <c r="AD16" s="43"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
-      <c r="AH16" s="26"/>
+      <c r="AH16" s="33"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="23"/>
-      <c r="AL16" s="47"/>
+      <c r="AL16" s="31"/>
       <c r="AM16" s="25"/>
       <c r="AN16" s="14"/>
       <c r="AO16" s="14"/>
-      <c r="AP16" s="26"/>
+      <c r="AP16" s="33"/>
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
@@ -2213,7 +2226,7 @@
       <c r="BG16"/>
       <c r="BH16"/>
     </row>
-    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2228,7 +2241,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="38"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -2239,23 +2252,23 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="27"/>
+      <c r="Z17" s="43"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="27"/>
+      <c r="AD17" s="43"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
-      <c r="AH17" s="26"/>
+      <c r="AH17" s="33"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="23"/>
-      <c r="AL17" s="47"/>
+      <c r="AL17" s="31"/>
       <c r="AM17" s="25"/>
       <c r="AN17" s="14"/>
       <c r="AO17" s="14"/>
-      <c r="AP17" s="26"/>
+      <c r="AP17" s="33"/>
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
@@ -2275,25 +2288,32 @@
       <c r="BG17"/>
       <c r="BH17"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="Z18" s="27"/>
-      <c r="AD18" s="27"/>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="Z18" s="43"/>
+      <c r="AD18" s="43"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="Z19" s="27"/>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="Z19" s="43"/>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C3:M6" xr:uid="{79061BE9-8992-437D-8806-D7A16D6352F7}"/>
   <mergeCells count="39">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="AL2:AL17"/>
-    <mergeCell ref="AP3:AP17"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="Z1:Z19"/>
+    <mergeCell ref="AD1:AD18"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AG13:AG14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="P13:P14"/>
@@ -2308,22 +2328,23 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="AL2:AL17"/>
+    <mergeCell ref="AP3:AP17"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AC13:AC14"/>
     <mergeCell ref="AH3:AH17"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="X13:X14"/>
-    <mergeCell ref="N13:N14"/>
     <mergeCell ref="U13:U14"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="W13:W14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="Z1:Z19"/>
-    <mergeCell ref="AD1:AD18"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AG13:AG14"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:X5 AA4:AC13 AE4:AG13 P4:W17 X7:X13 X15:X17 AA15:AC17 AE15:AG17">
     <cfRule type="expression" dxfId="2" priority="10">

--- a/assets/Docs/Allignment_Procedure_Realisationdocument.xlsx
+++ b/assets/Docs/Allignment_Procedure_Realisationdocument.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/r0938856_student_thomasmore_be/Documents/CEGEKA_Realisationdocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9d54e926f21558c/Stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="957" documentId="13_ncr:1_{2139B280-900B-4951-B5E7-F225E1A1A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE215A3-531B-4F5E-A20C-183B77E3162C}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="13_ncr:1_{2139B280-900B-4951-B5E7-F225E1A1A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA351BCC-DA10-4364-BA49-56C3705E666B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E3B28ED-62BA-46C1-AF90-1008F7DC1809}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5E3B28ED-62BA-46C1-AF90-1008F7DC1809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Splunk: No changes were made ----- Sentinel: Logs can be found in &lt;Environment&gt;</t>
-  </si>
-  <si>
     <t>Splunk: Logs can be found in: &lt;Splunk Environment&gt; ----- Sentinel: No logs available</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>Currently applying fixes to reduce false positives</t>
   </si>
   <si>
-    <t>Splunk: N/A ----- Sentinel: Deployment succesful</t>
-  </si>
-  <si>
     <t>Splunk: Deployment succesful ----- Sentinel: N/A</t>
   </si>
   <si>
@@ -318,6 +312,12 @@
   </si>
   <si>
     <t>Note: This is a mock-up version of the alignment procedure. The detection rules shown here are fictional and do not reflect actual datasets or environments used during my internship.</t>
+  </si>
+  <si>
+    <t>Splunk: No changes were made ----- Sentinel: Logs can be found in &lt;Sentinel Environment&gt;</t>
+  </si>
+  <si>
+    <t>Splunk: N/A ----- Sentinel: Deployment successful</t>
   </si>
 </sst>
 </file>
@@ -572,9 +572,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,55 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,87 +1004,87 @@
   <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="196.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="172.7109375" customWidth="1"/>
+    <col min="4" max="4" width="81.1796875" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1"/>
+    <col min="10" max="10" width="196.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="172.7265625" customWidth="1"/>
     <col min="12" max="12" width="148" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="231.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.42578125" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="231.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.453125" customWidth="1"/>
+    <col min="15" max="15" width="4.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" customWidth="1"/>
-    <col min="26" max="26" width="4.5703125" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" customWidth="1"/>
-    <col min="30" max="30" width="6.42578125" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="26.28515625" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" customWidth="1"/>
-    <col min="35" max="35" width="24.28515625" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.7109375" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" customWidth="1"/>
-    <col min="39" max="40" width="25.7109375" customWidth="1"/>
-    <col min="41" max="41" width="24.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" customWidth="1"/>
+    <col min="25" max="25" width="18.26953125" customWidth="1"/>
+    <col min="26" max="26" width="4.54296875" customWidth="1"/>
+    <col min="27" max="27" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.81640625" customWidth="1"/>
+    <col min="29" max="29" width="23.26953125" customWidth="1"/>
+    <col min="30" max="30" width="6.453125" customWidth="1"/>
+    <col min="31" max="31" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="26.26953125" customWidth="1"/>
+    <col min="34" max="34" width="5.7265625" customWidth="1"/>
+    <col min="35" max="35" width="24.26953125" customWidth="1"/>
+    <col min="36" max="36" width="20.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.7265625" customWidth="1"/>
+    <col min="38" max="38" width="8.81640625" customWidth="1"/>
+    <col min="39" max="40" width="25.7265625" customWidth="1"/>
+    <col min="41" max="41" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="Z1" s="43"/>
-      <c r="AD1" s="43"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="Z1" s="33"/>
+      <c r="AD1" s="33"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
+      <c r="AM1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
     </row>
-    <row r="2" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:60" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1093,38 +1093,38 @@
         <v>2</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="37"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="48" t="s">
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AI2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
     </row>
-    <row r="3" spans="2:60" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:60" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="Y3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="43"/>
+      <c r="Z3" s="33"/>
       <c r="AA3" s="22" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="AC3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="43"/>
+      <c r="AD3" s="33"/>
       <c r="AE3" s="18" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="AG3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="33"/>
+      <c r="AH3" s="50"/>
       <c r="AI3" s="22" t="s">
         <v>36</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="AK3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AL3" s="31"/>
+      <c r="AL3" s="48"/>
       <c r="AM3" s="24" t="s">
         <v>36</v>
       </c>
@@ -1235,9 +1235,9 @@
       <c r="AO3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="32"/>
+      <c r="AP3" s="49"/>
     </row>
-    <row r="4" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
         <v>27</v>
@@ -1304,7 +1304,7 @@
       <c r="Y4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="43"/>
+      <c r="Z4" s="33"/>
       <c r="AA4" s="8" t="s">
         <v>40</v>
       </c>
@@ -1312,39 +1312,39 @@
         <v>38</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD4" s="43"/>
+        <v>76</v>
+      </c>
+      <c r="AD4" s="33"/>
       <c r="AE4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="AH4" s="50"/>
       <c r="AI4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AJ4" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="AK4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="AL4" s="48"/>
       <c r="AM4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="AN4" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP4" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="AP4" s="50"/>
       <c r="AQ4"/>
       <c r="AR4"/>
       <c r="AS4"/>
@@ -1364,7 +1364,7 @@
       <c r="BG4"/>
       <c r="BH4"/>
     </row>
-    <row r="5" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>70</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
         <v>27</v>
@@ -1431,7 +1431,7 @@
       <c r="Y5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" s="43"/>
+      <c r="Z5" s="33"/>
       <c r="AA5" s="8" t="s">
         <v>41</v>
       </c>
@@ -1439,9 +1439,9 @@
         <v>38</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD5" s="43"/>
+        <v>91</v>
+      </c>
+      <c r="AD5" s="33"/>
       <c r="AE5" s="8" t="s">
         <v>40</v>
       </c>
@@ -1449,27 +1449,27 @@
         <v>38</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH5" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="AH5" s="50"/>
       <c r="AI5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL5" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="AL5" s="48"/>
       <c r="AM5" s="25" t="s">
         <v>42</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AO5" s="14"/>
-      <c r="AP5" s="33"/>
+      <c r="AP5" s="50"/>
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
@@ -1489,7 +1489,7 @@
       <c r="BG5"/>
       <c r="BH5"/>
     </row>
-    <row r="6" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="N6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
         <v>27</v>
@@ -1558,7 +1558,7 @@
       <c r="Y6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Z6" s="43"/>
+      <c r="Z6" s="33"/>
       <c r="AA6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1566,9 +1566,9 @@
         <v>40</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD6" s="43"/>
+        <v>75</v>
+      </c>
+      <c r="AD6" s="33"/>
       <c r="AE6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1576,27 +1576,27 @@
         <v>40</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH6" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="AH6" s="50"/>
       <c r="AI6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL6" s="31"/>
+        <v>86</v>
+      </c>
+      <c r="AL6" s="48"/>
       <c r="AM6" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AN6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AO6" s="14"/>
-      <c r="AP6" s="33"/>
+      <c r="AP6" s="50"/>
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
@@ -1616,7 +1616,7 @@
       <c r="BG6"/>
       <c r="BH6"/>
     </row>
-    <row r="7" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1630,7 +1630,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="37"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -1641,23 +1641,23 @@
       <c r="W7" s="8"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="43"/>
+      <c r="Z7" s="33"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="43"/>
+      <c r="AD7" s="33"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
-      <c r="AH7" s="33"/>
+      <c r="AH7" s="50"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="23"/>
-      <c r="AL7" s="31"/>
+      <c r="AL7" s="48"/>
       <c r="AM7" s="25"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
-      <c r="AP7" s="33"/>
+      <c r="AP7" s="50"/>
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
@@ -1677,7 +1677,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
     </row>
-    <row r="8" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1691,7 +1691,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="37"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -1702,23 +1702,23 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="43"/>
+      <c r="Z8" s="33"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="43"/>
+      <c r="AD8" s="33"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
-      <c r="AH8" s="33"/>
+      <c r="AH8" s="50"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="31"/>
+      <c r="AL8" s="48"/>
       <c r="AM8" s="25"/>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
-      <c r="AP8" s="33"/>
+      <c r="AP8" s="50"/>
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8"/>
@@ -1738,7 +1738,7 @@
       <c r="BG8"/>
       <c r="BH8"/>
     </row>
-    <row r="9" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1752,7 +1752,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -1763,23 +1763,23 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="43"/>
+      <c r="Z9" s="33"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="43"/>
+      <c r="AD9" s="33"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="33"/>
+      <c r="AH9" s="50"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="23"/>
-      <c r="AL9" s="31"/>
+      <c r="AL9" s="48"/>
       <c r="AM9" s="25"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="14"/>
-      <c r="AP9" s="33"/>
+      <c r="AP9" s="50"/>
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9"/>
@@ -1799,7 +1799,7 @@
       <c r="BG9"/>
       <c r="BH9"/>
     </row>
-    <row r="10" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1813,7 +1813,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -1824,23 +1824,23 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="43"/>
+      <c r="Z10" s="33"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="43"/>
+      <c r="AD10" s="33"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
-      <c r="AH10" s="33"/>
+      <c r="AH10" s="50"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="23"/>
-      <c r="AL10" s="31"/>
+      <c r="AL10" s="48"/>
       <c r="AM10" s="25"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
-      <c r="AP10" s="33"/>
+      <c r="AP10" s="50"/>
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10"/>
@@ -1860,7 +1860,7 @@
       <c r="BG10"/>
       <c r="BH10"/>
     </row>
-    <row r="11" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1874,7 +1874,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="37"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -1885,23 +1885,23 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="43"/>
+      <c r="Z11" s="33"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="43"/>
+      <c r="AD11" s="33"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
-      <c r="AH11" s="33"/>
+      <c r="AH11" s="50"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="23"/>
-      <c r="AL11" s="31"/>
+      <c r="AL11" s="48"/>
       <c r="AM11" s="25"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14"/>
-      <c r="AP11" s="33"/>
+      <c r="AP11" s="50"/>
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11"/>
@@ -1921,7 +1921,7 @@
       <c r="BG11"/>
       <c r="BH11"/>
     </row>
-    <row r="12" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1935,7 +1935,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -1946,23 +1946,23 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="43"/>
+      <c r="Z12" s="33"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="43"/>
+      <c r="AD12" s="33"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="20"/>
-      <c r="AH12" s="33"/>
+      <c r="AH12" s="50"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="23"/>
-      <c r="AL12" s="31"/>
+      <c r="AL12" s="48"/>
       <c r="AM12" s="25"/>
       <c r="AN12" s="14"/>
       <c r="AO12" s="14"/>
-      <c r="AP12" s="33"/>
+      <c r="AP12" s="50"/>
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
@@ -1982,48 +1982,48 @@
       <c r="BG12"/>
       <c r="BH12"/>
     </row>
-    <row r="13" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="43"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="33"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="23"/>
-      <c r="AL13" s="31"/>
+      <c r="AL13" s="48"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="14"/>
       <c r="AO13" s="14"/>
-      <c r="AP13" s="33"/>
+      <c r="AP13" s="50"/>
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
@@ -2043,48 +2043,48 @@
       <c r="BG13"/>
       <c r="BH13"/>
     </row>
-    <row r="14" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="43"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="33"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="23"/>
-      <c r="AL14" s="31"/>
+      <c r="AL14" s="48"/>
       <c r="AM14" s="25"/>
       <c r="AN14" s="14"/>
       <c r="AO14" s="14"/>
-      <c r="AP14" s="33"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
@@ -2104,7 +2104,7 @@
       <c r="BG14"/>
       <c r="BH14"/>
     </row>
-    <row r="15" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2118,7 +2118,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="37"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -2129,23 +2129,23 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="43"/>
+      <c r="Z15" s="33"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="43"/>
+      <c r="AD15" s="33"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="33"/>
+      <c r="AH15" s="50"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="23"/>
-      <c r="AL15" s="31"/>
+      <c r="AL15" s="48"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="14"/>
       <c r="AO15" s="14"/>
-      <c r="AP15" s="33"/>
+      <c r="AP15" s="50"/>
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
@@ -2165,7 +2165,7 @@
       <c r="BG15"/>
       <c r="BH15"/>
     </row>
-    <row r="16" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2179,7 +2179,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -2190,23 +2190,23 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="43"/>
+      <c r="Z16" s="33"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="43"/>
+      <c r="AD16" s="33"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
-      <c r="AH16" s="33"/>
+      <c r="AH16" s="50"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="23"/>
-      <c r="AL16" s="31"/>
+      <c r="AL16" s="48"/>
       <c r="AM16" s="25"/>
       <c r="AN16" s="14"/>
       <c r="AO16" s="14"/>
-      <c r="AP16" s="33"/>
+      <c r="AP16" s="50"/>
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
@@ -2226,7 +2226,7 @@
       <c r="BG16"/>
       <c r="BH16"/>
     </row>
-    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2241,7 +2241,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="37"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -2252,23 +2252,23 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="43"/>
+      <c r="Z17" s="33"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="43"/>
+      <c r="AD17" s="33"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
-      <c r="AH17" s="33"/>
+      <c r="AH17" s="50"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="23"/>
-      <c r="AL17" s="31"/>
+      <c r="AL17" s="48"/>
       <c r="AM17" s="25"/>
       <c r="AN17" s="14"/>
       <c r="AO17" s="14"/>
-      <c r="AP17" s="33"/>
+      <c r="AP17" s="50"/>
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
@@ -2288,32 +2288,39 @@
       <c r="BG17"/>
       <c r="BH17"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="Z18" s="43"/>
-      <c r="AD18" s="43"/>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="Z18" s="33"/>
+      <c r="AD18" s="33"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="Z19" s="43"/>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="Z19" s="33"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="B20" s="26"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
-        <v>92</v>
+    <row r="21" spans="1:60" ht="16" x14ac:dyDescent="0.4">
+      <c r="B21" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C3:M6" xr:uid="{79061BE9-8992-437D-8806-D7A16D6352F7}"/>
   <mergeCells count="39">
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="Z1:Z19"/>
-    <mergeCell ref="AD1:AD18"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="AL2:AL17"/>
+    <mergeCell ref="AP3:AP17"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AH3:AH17"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="P13:P14"/>
@@ -2330,21 +2337,14 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="AL2:AL17"/>
-    <mergeCell ref="AP3:AP17"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AH3:AH17"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="Z1:Z19"/>
+    <mergeCell ref="AD1:AD18"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AG13:AG14"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:X5 AA4:AC13 AE4:AG13 P4:W17 X7:X13 X15:X17 AA15:AC17 AE15:AG17">
     <cfRule type="expression" dxfId="2" priority="10">
